--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5FB772-4E53-421C-9637-62DF39A7971D}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF9FEE9-20E8-4622-8F5A-529BAB0E2742}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8160" yWindow="4080" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,20 @@
     <sheet name="conocimiento_1" sheetId="27" r:id="rId27"/>
     <sheet name="conocimiento_2" sheetId="28" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1601,7 +1614,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1611,6 +1627,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1635,17 +1658,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2203,6 +2229,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -27913,7 +27943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28030,13 +28060,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -28053,7 +28090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28069,8 +28106,10 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -28086,8 +28125,10 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28103,8 +28144,10 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28120,8 +28163,10 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28137,8 +28182,10 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -28154,8 +28201,10 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -28171,8 +28220,10 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -28188,8 +28239,10 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -28205,8 +28258,10 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -28222,8 +28277,10 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -28239,8 +28296,10 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -28256,8 +28315,10 @@
       <c r="E13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -28273,6 +28334,8 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28283,9 +28346,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -69256,6 +69324,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF9FEE9-20E8-4622-8F5A-529BAB0E2742}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E334FE9-967D-4A96-BF6C-88B5ED23020B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -28062,7 +28062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
@@ -28346,7 +28346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -34371,6 +34373,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E354">
+    <sortCondition descending="1" ref="B8:B354"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34379,7 +34384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G1499"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A54" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E334FE9-967D-4A96-BF6C-88B5ED23020B}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A950CD9A-619B-4549-8AC1-4792EADB52A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -28346,7 +28346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -68871,9 +68871,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A950CD9A-619B-4549-8AC1-4792EADB52A2}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046791E5-CC3B-42F0-93A2-2D1AD436ECA8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,9 @@
     <sheet name="conocimiento_1" sheetId="27" r:id="rId27"/>
     <sheet name="conocimiento_2" sheetId="28" r:id="rId28"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">vacantes_tot!$A$1:$F$1048</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2226,7 +2229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2607,9 +2612,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F1048"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E950" sqref="E950"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="129.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -21610,6 +21622,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1048" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21621,6 +21634,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -22319,9 +22335,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -22654,9 +22676,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="65.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -23317,6 +23344,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -23822,6 +23852,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -34384,7 +34417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G1499"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -68871,7 +68904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{046791E5-CC3B-42F0-93A2-2D1AD436ECA8}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEEAF9B7-9F22-4BA3-97F0-942FFC9F9FF7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -1689,6 +1689,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2612,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F1048"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E950" sqref="E950"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F968" sqref="F968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21622,7 +21626,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1048" xr:uid="{00000000-0001-0000-0A00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22068,9 +22071,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -22676,7 +22684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEEAF9B7-9F22-4BA3-97F0-942FFC9F9FF7}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4457DBF3-2B61-4C81-AFBA-F7F0B292A8A2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -1689,10 +1689,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2616,7 +2612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F968" sqref="F968"/>
     </sheetView>
   </sheetViews>
@@ -21634,7 +21630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -22684,12 +22682,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4457DBF3-2B61-4C81-AFBA-F7F0B292A8A2}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7DF9A5-F018-4C06-B359-A4AFA695DE28}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -21630,13 +21630,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -22682,7 +22683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -24663,6 +24664,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="50.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/ENADEL 2023/Tablas/porcentajes.xlsx
+++ b/ENADEL 2023/Tablas/porcentajes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchile-my.sharepoint.com/personal/gocampo_fen_uchile_cl/Documents/Escritorio/Repositorios/ACNUR/ENADEL 2023/Tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7DF9A5-F018-4C06-B359-A4AFA695DE28}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="11_BA5482F5C8CC89882C3981443EAC11BCDFE98345" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6998498B-DC99-4BCA-9D47-25EB281A104A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_acteco" sheetId="1" r:id="rId1"/>
@@ -21630,7 +21630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -23349,7 +23349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -23857,7 +23859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25566,7 +25570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
